--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/01.BaoGiaBH/BG_LED3AE_250625.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/01.BaoGiaBH/BG_LED3AE_250625.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang6\01.BaoGiaBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74EDE7E-2599-48C6-8948-EEFB6340E73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1017B13-2F0C-4287-8AA9-326074600A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,6 +477,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -485,84 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,7 +926,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -950,67 +950,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="36" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="33" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1020,11 +1020,11 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1034,11 +1034,11 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1049,11 +1049,11 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1079,7 +1079,7 @@
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -1131,17 +1131,17 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="8">
         <f>SUM(J10:J10)</f>
         <v>150000</v>
@@ -1149,16 +1149,16 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,46 +1167,46 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="15"/>
       <c r="AA15" s="2"/>
     </row>
@@ -1265,20 +1265,20 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,18 +1355,18 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A11:I11"/>
